--- a/Documentos/Proyecto/Diagrama_Grantt.xlsx
+++ b/Documentos/Proyecto/Diagrama_Grantt.xlsx
@@ -1,25 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Desktop\Nueva carpeta (2)\requerimientos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Natalia\Documents\xampp\htdocs\Integrador\Documentos\Proyecto\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5A33A0-6B1A-4F73-9C75-96E9CA3C0573}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>Actividad</t>
   </si>
@@ -33,52 +38,7 @@
     <t xml:space="preserve">    Grafica de GANTT</t>
   </si>
   <si>
-    <t>registro_docente</t>
-  </si>
-  <si>
-    <t>registro_aula</t>
-  </si>
-  <si>
-    <t>registro_materia</t>
-  </si>
-  <si>
-    <t>registro_horario</t>
-  </si>
-  <si>
-    <t>gestion_docente</t>
-  </si>
-  <si>
-    <t>gestion_aula</t>
-  </si>
-  <si>
-    <t>gestion_materia</t>
-  </si>
-  <si>
-    <t>gestion_horario</t>
-  </si>
-  <si>
     <t>Duracion (Días)</t>
-  </si>
-  <si>
-    <t>consulta_estudiante</t>
-  </si>
-  <si>
-    <t>registro_estudiante</t>
-  </si>
-  <si>
-    <t>gestion_estudiante</t>
-  </si>
-  <si>
-    <t>consulta_docente</t>
-  </si>
-  <si>
-    <t>consulta_aula</t>
-  </si>
-  <si>
-    <t>consulta_materia</t>
-  </si>
-  <si>
-    <t>consulta_horario</t>
   </si>
   <si>
     <t>ingreso_menu</t>
@@ -95,12 +55,66 @@
   <si>
     <t>Docente</t>
   </si>
+  <si>
+    <t>r_estudiante</t>
+  </si>
+  <si>
+    <t>r_docente</t>
+  </si>
+  <si>
+    <t>r_aula</t>
+  </si>
+  <si>
+    <t>r_materia</t>
+  </si>
+  <si>
+    <t>r_horario</t>
+  </si>
+  <si>
+    <t>g_estudiante</t>
+  </si>
+  <si>
+    <t>g_docente</t>
+  </si>
+  <si>
+    <t>g_aula</t>
+  </si>
+  <si>
+    <t>g_materia</t>
+  </si>
+  <si>
+    <t>g_horario</t>
+  </si>
+  <si>
+    <t>c_estudiante</t>
+  </si>
+  <si>
+    <t>c_docente</t>
+  </si>
+  <si>
+    <t>c_aula</t>
+  </si>
+  <si>
+    <t>c_materia</t>
+  </si>
+  <si>
+    <t>c_horario</t>
+  </si>
+  <si>
+    <t>(C = Consulta)</t>
+  </si>
+  <si>
+    <t>(G = Gestion=</t>
+  </si>
+  <si>
+    <t>(R = Registro)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -136,7 +150,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -159,24 +173,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -204,9 +205,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -231,6 +229,2108 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fecha de inicio </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$5:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>inicio_sesion</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ingreso_menu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>r_estudiante</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>r_docente</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>r_aula</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>r_materia</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>r_horario</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>g_estudiante</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>g_docente</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>g_aula</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>g_materia</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>g_horario</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>c_estudiante</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>c_docente</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>c_aula</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>c_materia</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>c_horario</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$5:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>43751</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43754</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43756</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43756</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43758</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43758</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>43760</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>43763</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>43767</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43771</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>43771</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>43773</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>43777</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>43777</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>43779</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>43781</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>43781</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AD61-44BF-A718-A8D8AFAC9DC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Duracion (Días)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$5:$A$21</c:f>
+              <c:strCache>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>inicio_sesion</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ingreso_menu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>r_estudiante</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>r_docente</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>r_aula</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>r_materia</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>r_horario</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>g_estudiante</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>g_docente</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>g_aula</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>g_materia</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>g_horario</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>c_estudiante</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>c_docente</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>c_aula</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>c_materia</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>c_horario</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$5:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9" formatCode="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11" formatCode="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AD61-44BF-A718-A8D8AFAC9DC8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1406410303"/>
+        <c:axId val="1415958479"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1406410303"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1415958479"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1415958479"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="43782"/>
+          <c:min val="43751"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1406410303"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Fecha de inicio </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$28:$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>inicio_sesion</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ingreso_menu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>consultar_clases</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$B$28:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>43751</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>43753</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>43781</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-51BC-4DB2-BB4F-DD0C6FB67804}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$C$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Duracion (Días)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Hoja1!$A$28:$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>inicio_sesion</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>ingreso_menu</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>consultar_clases</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Hoja1!$C$28:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-51BC-4DB2-BB4F-DD0C6FB67804}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1468736255"/>
+        <c:axId val="1415974703"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1468736255"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1415974703"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1415974703"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="43782"/>
+          <c:min val="43751"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="t"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CO"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1468736255"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CO"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>752476</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>707573</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A56ACDDF-2E36-4CFF-A854-E4A6EB496C9D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>20409</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>2722</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>680358</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0825E99D-A00E-49D9-9D18-B187396AAC1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Hoja1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Hoja1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -309,6 +2409,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -344,6 +2461,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -519,14 +2653,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33:C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21.5703125" customWidth="1"/>
@@ -535,7 +2669,23 @@
     <col min="6" max="6" width="20.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" ht="27">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="F2" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="33" x14ac:dyDescent="0.6">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
         <v>3</v>
@@ -543,7 +2693,7 @@
       <c r="C3" s="7"/>
       <c r="D3" s="6"/>
     </row>
-    <row r="4" spans="1:6" ht="18">
+    <row r="4" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -551,421 +2701,411 @@
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="B5" s="3">
-        <v>43634</v>
+        <v>43751</v>
       </c>
       <c r="C5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="3">
-        <v>43638</v>
+        <v>43753</v>
       </c>
       <c r="F5" s="9"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="11">
-        <v>43634</v>
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>43754</v>
       </c>
       <c r="C6" s="10">
         <v>1</v>
       </c>
       <c r="D6" s="3">
-        <v>43638</v>
+        <v>43755</v>
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="3">
+        <v>43756</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>43757</v>
+      </c>
+      <c r="F7" s="9"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="3">
+        <v>43756</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3">
+        <v>43757</v>
+      </c>
+      <c r="F8" s="9"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3">
+        <v>43758</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>43759</v>
+      </c>
+      <c r="F9" s="9"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3">
+        <v>43758</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>43759</v>
+      </c>
+      <c r="F10" s="9"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3">
-        <v>43636</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="B11" s="3">
+        <v>43760</v>
+      </c>
+      <c r="C11" s="2">
         <v>2</v>
       </c>
-      <c r="D7" s="3">
-        <v>43651</v>
-      </c>
-      <c r="F7" s="9"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3">
-        <v>43636</v>
-      </c>
-      <c r="C8" s="2">
-        <v>4</v>
-      </c>
-      <c r="D8" s="3">
-        <v>43670</v>
-      </c>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="3">
-        <v>43666</v>
-      </c>
-      <c r="C9" s="2">
-        <v>2</v>
-      </c>
-      <c r="D9" s="3">
-        <v>43730</v>
-      </c>
-      <c r="F9" s="9"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="3">
-        <v>43667</v>
-      </c>
-      <c r="C10" s="2">
-        <v>5</v>
-      </c>
-      <c r="D10" s="3">
-        <v>43735</v>
-      </c>
-      <c r="F10" s="9"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="3">
-        <v>43668</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
       <c r="D11" s="3">
-        <v>43736</v>
+        <v>43762</v>
       </c>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B12" s="3">
-        <v>43669</v>
+        <v>43763</v>
       </c>
       <c r="C12" s="2">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D12" s="3">
-        <v>43737</v>
+        <v>43766</v>
       </c>
       <c r="F12" s="9"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B13" s="3">
-        <v>43670</v>
+        <v>43767</v>
       </c>
       <c r="C13" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" s="3">
-        <v>43738</v>
+        <v>43770</v>
       </c>
       <c r="F13" s="9"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="B14" s="3">
-        <v>43671</v>
+        <v>43771</v>
       </c>
       <c r="C14" s="5">
         <v>1</v>
       </c>
       <c r="D14" s="3">
-        <v>43739</v>
+        <v>43772</v>
       </c>
       <c r="F14" s="9"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B15" s="3">
-        <v>43672</v>
+        <v>43771</v>
       </c>
       <c r="C15" s="4">
         <v>1</v>
       </c>
       <c r="D15" s="3">
-        <v>43740</v>
+        <v>43772</v>
       </c>
       <c r="F15" s="9"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="B16" s="3">
-        <v>43673</v>
+        <v>43773</v>
       </c>
       <c r="C16" s="5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" s="3">
-        <v>43741</v>
+        <v>43776</v>
       </c>
       <c r="F16" s="9"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B17" s="3">
-        <v>43674</v>
+        <v>43777</v>
       </c>
       <c r="C17" s="4">
         <v>1</v>
       </c>
       <c r="D17" s="3">
-        <v>43742</v>
+        <v>43778</v>
       </c>
       <c r="F17" s="9"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B18" s="3">
-        <v>43675</v>
+        <v>43777</v>
       </c>
       <c r="C18" s="4">
         <v>1</v>
       </c>
       <c r="D18" s="3">
-        <v>43743</v>
+        <v>43778</v>
       </c>
       <c r="F18" s="9"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B19" s="3">
-        <v>43676</v>
+        <v>43779</v>
       </c>
       <c r="C19" s="4">
         <v>1</v>
       </c>
       <c r="D19" s="3">
-        <v>43744</v>
+        <v>43780</v>
       </c>
       <c r="F19" s="9"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B20" s="3">
-        <v>43677</v>
+        <v>43781</v>
       </c>
       <c r="C20" s="4">
         <v>1</v>
       </c>
       <c r="D20" s="3">
-        <v>43745</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>43782</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B21" s="3">
-        <v>43678</v>
+        <v>43781</v>
       </c>
       <c r="C21" s="4">
         <v>1</v>
       </c>
       <c r="D21" s="3">
-        <v>43746</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="27">
-      <c r="A25" s="6"/>
-      <c r="B25" s="7" t="s">
+        <v>43782</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="33" x14ac:dyDescent="0.6">
+      <c r="A26" s="6"/>
+      <c r="B26" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="6"/>
-    </row>
-    <row r="26" spans="1:6" ht="18">
-      <c r="A26" s="1" t="s">
+      <c r="C26" s="7"/>
+      <c r="D26" s="6"/>
+      <c r="F26" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="20.25" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D26" s="1" t="s">
+      <c r="C27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F26" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="3">
-        <v>43634</v>
-      </c>
-      <c r="C27" s="2">
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="3">
+        <v>43751</v>
+      </c>
+      <c r="C28" s="2">
         <v>1</v>
       </c>
-      <c r="D27" s="3">
-        <v>43638</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B28" s="11">
-        <v>43634</v>
-      </c>
-      <c r="C28" s="10">
-        <v>1</v>
-      </c>
       <c r="D28" s="3">
-        <v>43638</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>43752</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B29" s="3">
-        <v>43636</v>
+        <v>43753</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
       </c>
       <c r="D29" s="3">
-        <v>43651</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="9"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="12"/>
-    </row>
-    <row r="31" spans="1:6">
+        <v>43754</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="3">
+        <v>43781</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
+      <c r="D30" s="3">
+        <v>43782</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="9"/>
-      <c r="B31" s="12"/>
+      <c r="B31" s="11"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="12"/>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="D31" s="11"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="9"/>
-      <c r="B32" s="12"/>
+      <c r="B32" s="11"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="12"/>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="D32" s="11"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="9"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="12"/>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="D33" s="11"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="9"/>
-      <c r="B34" s="12"/>
+      <c r="B34" s="11"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="12"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="13"/>
-      <c r="B35" s="12"/>
-      <c r="C35" s="13"/>
-      <c r="D35" s="12"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="13"/>
-      <c r="B36" s="12"/>
-      <c r="C36" s="14"/>
-      <c r="D36" s="12"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="13"/>
-      <c r="B37" s="12"/>
-      <c r="C37" s="13"/>
-      <c r="D37" s="12"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="13"/>
-      <c r="B38" s="12"/>
-      <c r="C38" s="14"/>
-      <c r="D38" s="12"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="13"/>
-      <c r="B39" s="12"/>
-      <c r="C39" s="13"/>
-      <c r="D39" s="12"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="13"/>
-      <c r="B40" s="12"/>
-      <c r="C40" s="13"/>
-      <c r="D40" s="12"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="13"/>
-      <c r="B41" s="12"/>
-      <c r="C41" s="13"/>
-      <c r="D41" s="12"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="13"/>
-      <c r="B42" s="12"/>
-      <c r="C42" s="13"/>
-      <c r="D42" s="12"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="13"/>
-      <c r="B43" s="12"/>
-      <c r="C43" s="13"/>
-      <c r="D43" s="12"/>
+      <c r="D34" s="11"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="12"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="11"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="12"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="13"/>
+      <c r="D36" s="11"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="11"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="12"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="13"/>
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="12"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="11"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="12"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="11"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="12"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="11"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="12"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="11"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="12"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>